--- a/biology/Botanique/Léon_Delvosalle/Léon_Delvosalle.xlsx
+++ b/biology/Botanique/Léon_Delvosalle/Léon_Delvosalle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Delvosalle</t>
+          <t>Léon_Delvosalle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Léon Delvosalle, né à Forest le 30 août 1915 et mort dans la même commune le 1er décembre 2012 (à 97 ans), est un médecin belge et botaniste amateur, connu principalement pour sa contribution à l'étude de la flore belge.
-Il s’est consacré durant plus de 40 ans à la cartographie floristique de la Belgique et du Nord de la France. Il a reçu le Prix Emiel Van Rompaey pour la botanique le 30 novembre 2011[1].
+Il s’est consacré durant plus de 40 ans à la cartographie floristique de la Belgique et du Nord de la France. Il a reçu le Prix Emiel Van Rompaey pour la botanique le 30 novembre 2011.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Delvosalle</t>
+          <t>Léon_Delvosalle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Atlas de la Flore Belge et Luxembourgeoise (1972 &amp; 1979)
 Commentaires (1978)
